--- a/FY22/CE-QUAL-W2/CE-QUAL-W2_Workshop_Aug_2022_Agenda.xlsx
+++ b/FY22/CE-QUAL-W2/CE-QUAL-W2_Workshop_Aug_2022_Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/Workshops/FY22/CE-QUAL-W2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EBA50A-3334-1B4B-B87A-354AF299EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61044D57-0E52-A14D-A93C-58D1CF543143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{5524DC16-E37C-514A-B687-063004997C4D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5524DC16-E37C-514A-B687-063004997C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>Todd</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Case Study 1.1</t>
   </si>
   <si>
-    <t>LUNCH</t>
-  </si>
-  <si>
     <t>Workshop 3.2</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t>Model Setup (Control File)</t>
   </si>
   <si>
     <t>Lecture 2.1</t>
@@ -270,6 +264,12 @@
   </si>
   <si>
     <t>Social</t>
+  </si>
+  <si>
+    <t>Workshop Preparation</t>
+  </si>
+  <si>
+    <t>Course Closeout</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -723,9 +723,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -744,9 +741,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -792,6 +786,57 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,16 +858,73 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,140 +933,44 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1307,68 +1313,66 @@
     <col min="7" max="7" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.83203125" style="37"/>
-    <col min="14" max="14" width="28" style="37" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="37"/>
+    <col min="10" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="3" spans="1:9" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="51"/>
+      <c r="A1" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="3" spans="1:9" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="85"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="D3" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="85"/>
+      <c r="H3" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="85"/>
+    </row>
+    <row r="4" spans="1:9" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="31" t="s">
-        <v>66</v>
+      <c r="D4" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,23 +1382,23 @@
       <c r="B5" s="3">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,18 +1408,18 @@
       <c r="B6" s="3">
         <v>0.375</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="62"/>
+      <c r="D6" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="44"/>
       <c r="F6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1424,20 +1428,20 @@
       <c r="B7" s="3">
         <v>0.38541666666666702</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="29"/>
+      <c r="G7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1446,16 +1450,16 @@
       <c r="B8" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="D8" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="56"/>
+      <c r="D8" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="40"/>
       <c r="F8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1464,16 +1468,16 @@
       <c r="B9" s="3">
         <v>0.40625</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="78" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1482,20 +1486,20 @@
       <c r="B10" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>27</v>
+      <c r="D10" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1504,18 +1508,18 @@
       <c r="B11" s="3">
         <v>0.42708333333333298</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="56"/>
+      <c r="D11" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="40"/>
       <c r="F11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="74"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1524,23 +1528,23 @@
       <c r="B12" s="3">
         <v>0.4375</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>23</v>
+      <c r="I12" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,18 +1554,18 @@
       <c r="B13" s="3">
         <v>0.44791666666666702</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="56"/>
+      <c r="D13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="40"/>
       <c r="F13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="G13" s="21"/>
       <c r="H13" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1570,16 +1574,16 @@
       <c r="B14" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="78" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1588,22 +1592,22 @@
       <c r="B15" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="53" t="s">
+      <c r="D15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="79"/>
+      <c r="I15" s="74"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1612,18 +1616,18 @@
       <c r="B16" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="56"/>
+      <c r="D16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="40"/>
       <c r="F16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="G16" s="31"/>
       <c r="H16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1634,18 +1638,18 @@
       <c r="B17" s="3">
         <v>0.48958333333333298</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
+      <c r="D17" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1654,14 +1658,12 @@
       <c r="B18" s="3">
         <v>0.5</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="20"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1670,18 +1672,18 @@
       <c r="B19" s="3">
         <v>0.51041666666666696</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="73"/>
+      <c r="D19" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1690,12 +1692,12 @@
       <c r="B20" s="3">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1704,12 +1706,12 @@
       <c r="B21" s="3">
         <v>0.53125</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1718,12 +1720,12 @@
       <c r="B22" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -1732,12 +1734,12 @@
       <c r="B23" s="3">
         <v>0.55208333333333304</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1746,12 +1748,12 @@
       <c r="B24" s="3">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1760,23 +1762,23 @@
       <c r="B25" s="3">
         <v>0.57291666666666696</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="57" t="s">
+      <c r="F25" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>27</v>
+      <c r="I25" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,18 +1788,18 @@
       <c r="B26" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="55"/>
+      <c r="D26" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="90"/>
       <c r="H26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -1806,16 +1808,20 @@
       <c r="B27" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
+      <c r="D27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="19"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1824,14 +1830,16 @@
       <c r="B28" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="20"/>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -1840,18 +1848,18 @@
       <c r="B29" s="3">
         <v>0.61458333333333304</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="78" t="s">
+      <c r="E29" s="74"/>
+      <c r="F29" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="78" t="s">
+      <c r="G29" s="92"/>
+      <c r="H29" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="79"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -1860,22 +1868,22 @@
       <c r="B30" s="3">
         <v>0.625</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="52" t="s">
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="41" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1886,18 +1894,18 @@
       <c r="B31" s="3">
         <v>0.63541666666666696</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="63"/>
+      <c r="D31" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="98"/>
+      <c r="F31" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="45"/>
       <c r="H31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1906,16 +1914,16 @@
       <c r="B32" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="14" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="20"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1924,20 +1932,18 @@
       <c r="B33" s="3">
         <v>0.65625</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>0</v>
-      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="74"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1946,16 +1952,22 @@
       <c r="B34" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D34" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="28" t="s">
+      <c r="D34" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="29"/>
+      <c r="F34" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="92"/>
+      <c r="H34" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -1964,12 +1976,20 @@
       <c r="B35" s="3">
         <v>0.67708333333333404</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="29"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1978,16 +1998,12 @@
       <c r="B36" s="3">
         <v>0.6875</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="67"/>
-      <c r="I36" s="30"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -1997,78 +2013,80 @@
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
-      <c r="H38" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="39"/>
+      <c r="H38" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="41"/>
+      <c r="D39" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="56"/>
       <c r="F39" s="2"/>
-      <c r="H39" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="84"/>
+      <c r="H39" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="H40" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="86"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="H40" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="64"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="H41" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I41" s="88"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="H41" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="66"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="H42" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="90"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="H42" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
-      <c r="H43" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="92"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="H43" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="53"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
-      <c r="H44" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="94"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="H44" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
-      <c r="H45" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="96"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="H45" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D14:E14"/>
